--- a/Team-Data/2011-12/2-6-2011-12.xlsx
+++ b/Team-Data/2011-12/2-6-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.64</v>
+        <v>0.667</v>
       </c>
       <c r="H2" t="n">
         <v>49</v>
       </c>
       <c r="I2" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J2" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="L2" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M2" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.39</v>
+        <v>0.399</v>
       </c>
       <c r="O2" t="n">
         <v>16.3</v>
@@ -705,79 +772,79 @@
         <v>22.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.732</v>
+        <v>0.728</v>
       </c>
       <c r="R2" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S2" t="n">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="T2" t="n">
-        <v>42</v>
+        <v>42.3</v>
       </c>
       <c r="U2" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V2" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="W2" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE2" t="n">
         <v>5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>96</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>6</v>
       </c>
       <c r="AF2" t="n">
         <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>11</v>
       </c>
       <c r="AL2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM2" t="n">
         <v>17</v>
       </c>
       <c r="AN2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>14</v>
@@ -786,13 +853,13 @@
         <v>24</v>
       </c>
       <c r="AR2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AT2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
@@ -804,22 +871,22 @@
         <v>16</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB2" t="n">
         <v>13</v>
       </c>
       <c r="BC2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -926,19 +993,19 @@
         <v>4</v>
       </c>
       <c r="AD3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH3" t="n">
         <v>24</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>26</v>
       </c>
       <c r="AI3" t="n">
         <v>25</v>
@@ -962,7 +1029,7 @@
         <v>20</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ3" t="n">
         <v>12</v>
@@ -977,10 +1044,10 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>28</v>
@@ -992,10 +1059,10 @@
         <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-13.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG4" t="n">
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>24</v>
@@ -1129,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL4" t="n">
         <v>27</v>
@@ -1153,7 +1220,7 @@
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
@@ -1162,7 +1229,7 @@
         <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1180,7 +1247,7 @@
         <v>20</v>
       </c>
       <c r="BB4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -1212,82 +1279,82 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>0.778</v>
+        <v>0.769</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>81.2</v>
+        <v>81.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.466</v>
+        <v>0.463</v>
       </c>
       <c r="L5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
         <v>15.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.384</v>
+        <v>0.376</v>
       </c>
       <c r="O5" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P5" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.736</v>
+        <v>0.733</v>
       </c>
       <c r="R5" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S5" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T5" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="U5" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V5" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W5" t="n">
         <v>7.3</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.6</v>
+        <v>17.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1302,16 +1369,16 @@
         <v>2</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL5" t="n">
         <v>20</v>
@@ -1320,25 +1387,25 @@
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>3</v>
@@ -1350,19 +1417,19 @@
         <v>21</v>
       </c>
       <c r="AX5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
         <v>8</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA5" t="n">
         <v>27</v>
       </c>
       <c r="BB5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -1472,40 +1539,40 @@
         <v>-3.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
         <v>20</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM6" t="n">
         <v>14</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>11</v>
@@ -1517,10 +1584,10 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
         <v>19</v>
@@ -1529,7 +1596,7 @@
         <v>28</v>
       </c>
       <c r="AW6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX6" t="n">
         <v>23</v>
@@ -1538,7 +1605,7 @@
         <v>30</v>
       </c>
       <c r="AZ6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -1654,46 +1721,46 @@
         <v>2.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK7" t="n">
         <v>18</v>
       </c>
       <c r="AL7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM7" t="n">
         <v>5</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP7" t="n">
         <v>16</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR7" t="n">
         <v>22</v>
@@ -1702,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="AT7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU7" t="n">
         <v>13</v>
@@ -1711,19 +1778,19 @@
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ7" t="n">
         <v>13</v>
       </c>
       <c r="BA7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BB7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -1758,91 +1825,91 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>38.1</v>
+        <v>38.3</v>
       </c>
       <c r="J8" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.478</v>
+        <v>0.48</v>
       </c>
       <c r="L8" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M8" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.329</v>
+        <v>0.337</v>
       </c>
       <c r="O8" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P8" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.748</v>
+        <v>0.756</v>
       </c>
       <c r="R8" t="n">
         <v>9.4</v>
       </c>
       <c r="S8" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T8" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U8" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="AA8" t="n">
         <v>23.4</v>
       </c>
-      <c r="V8" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="W8" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="X8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>23.6</v>
-      </c>
       <c r="AB8" t="n">
-        <v>104</v>
+        <v>104.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
@@ -1851,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
         <v>21</v>
@@ -1860,13 +1927,13 @@
         <v>2</v>
       </c>
       <c r="AL8" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AM8" t="n">
         <v>7</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1875,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
@@ -1890,19 +1957,19 @@
         <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>27</v>
@@ -2030,10 +2097,10 @@
         <v>27</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ9" t="n">
         <v>27</v>
@@ -2060,10 +2127,10 @@
         <v>6</v>
       </c>
       <c r="AR9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT9" t="n">
         <v>30</v>
@@ -2072,7 +2139,7 @@
         <v>26</v>
       </c>
       <c r="AV9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
         <v>25</v>
@@ -2081,19 +2148,19 @@
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB9" t="n">
         <v>30</v>
       </c>
       <c r="BC9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -2200,25 +2267,25 @@
         <v>-2.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
         <v>7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>9</v>
@@ -2230,7 +2297,7 @@
         <v>6</v>
       </c>
       <c r="AN10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
         <v>25</v>
@@ -2239,10 +2306,10 @@
         <v>22</v>
       </c>
       <c r="AQ10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS10" t="n">
         <v>25</v>
@@ -2257,7 +2324,7 @@
         <v>13</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -2304,94 +2371,94 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.542</v>
       </c>
       <c r="H11" t="n">
         <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="J11" t="n">
-        <v>85.3</v>
+        <v>85.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L11" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.334</v>
+        <v>0.326</v>
       </c>
       <c r="O11" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="P11" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8</v>
+        <v>0.801</v>
       </c>
       <c r="R11" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="S11" t="n">
         <v>31.8</v>
       </c>
       <c r="T11" t="n">
-        <v>44</v>
+        <v>44.2</v>
       </c>
       <c r="U11" t="n">
         <v>20.8</v>
       </c>
       <c r="V11" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W11" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
         <v>5.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>17.2</v>
+        <v>16.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
         <v>5</v>
@@ -2409,13 +2476,13 @@
         <v>12</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
         <v>30</v>
@@ -2424,13 +2491,13 @@
         <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>15</v>
@@ -2439,25 +2506,25 @@
         <v>11</v>
       </c>
       <c r="AW11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX11" t="n">
         <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA11" t="n">
         <v>29</v>
       </c>
       <c r="BB11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
@@ -2576,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>23</v>
@@ -2588,7 +2655,7 @@
         <v>25</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM12" t="n">
         <v>23</v>
@@ -2600,7 +2667,7 @@
         <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ12" t="n">
         <v>2</v>
@@ -2612,7 +2679,7 @@
         <v>7</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>28</v>
@@ -2621,13 +2688,13 @@
         <v>18</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>24</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -2668,19 +2735,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
         <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.667</v>
       </c>
       <c r="H13" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="I13" t="n">
         <v>37.3</v>
@@ -2689,67 +2756,67 @@
         <v>80.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L13" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="M13" t="n">
-        <v>22.1</v>
+        <v>21.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.368</v>
+        <v>0.365</v>
       </c>
       <c r="O13" t="n">
-        <v>16.7</v>
+        <v>16.4</v>
       </c>
       <c r="P13" t="n">
         <v>25.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="R13" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S13" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="T13" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U13" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V13" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W13" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X13" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z13" t="n">
         <v>21.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
         <v>4</v>
@@ -2758,16 +2825,16 @@
         <v>6</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL13" t="n">
         <v>3</v>
@@ -2779,7 +2846,7 @@
         <v>10</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
         <v>7</v>
@@ -2788,10 +2855,10 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>24</v>
@@ -2806,7 +2873,7 @@
         <v>11</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY13" t="n">
         <v>3</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" t="n">
         <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.583</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,43 +2935,43 @@
         <v>35.6</v>
       </c>
       <c r="J14" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="L14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M14" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="N14" t="n">
         <v>0.294</v>
       </c>
       <c r="O14" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P14" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q14" t="n">
         <v>0.744</v>
       </c>
       <c r="R14" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="S14" t="n">
         <v>33.1</v>
       </c>
       <c r="T14" t="n">
-        <v>44.8</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
         <v>21.4</v>
       </c>
       <c r="V14" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W14" t="n">
         <v>5.6</v>
@@ -2913,37 +2980,37 @@
         <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>24</v>
@@ -2958,7 +3025,7 @@
         <v>19</v>
       </c>
       <c r="AN14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
         <v>10</v>
@@ -2970,13 +3037,13 @@
         <v>17</v>
       </c>
       <c r="AR14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT14" t="n">
         <v>3</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>10</v>
@@ -2988,13 +3055,13 @@
         <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA14" t="n">
         <v>14</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -3032,97 +3099,97 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>48.2</v>
       </c>
       <c r="I15" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="J15" t="n">
         <v>82.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.44</v>
+        <v>0.443</v>
       </c>
       <c r="L15" t="n">
         <v>3.5</v>
       </c>
       <c r="M15" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.315</v>
+        <v>0.316</v>
       </c>
       <c r="O15" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P15" t="n">
         <v>22.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.749</v>
+        <v>0.744</v>
       </c>
       <c r="R15" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S15" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T15" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U15" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W15" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA15" t="n">
         <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>92.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
@@ -3131,7 +3198,7 @@
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -3143,13 +3210,13 @@
         <v>23</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
@@ -3158,7 +3225,7 @@
         <v>23</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
         <v>24</v>
@@ -3170,19 +3237,19 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ15" t="n">
         <v>11</v>
       </c>
       <c r="BA15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
         <v>2</v>
@@ -3307,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ16" t="n">
         <v>23</v>
@@ -3316,19 +3383,19 @@
         <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM16" t="n">
         <v>24</v>
       </c>
       <c r="AN16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO16" t="n">
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ16" t="n">
         <v>11</v>
@@ -3340,13 +3407,13 @@
         <v>6</v>
       </c>
       <c r="AT16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU16" t="n">
         <v>12</v>
       </c>
       <c r="AV16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW16" t="n">
         <v>9</v>
@@ -3355,10 +3422,10 @@
         <v>20</v>
       </c>
       <c r="AY16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -3474,25 +3541,25 @@
         <v>-1.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK17" t="n">
         <v>21</v>
@@ -3510,10 +3577,10 @@
         <v>22</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR17" t="n">
         <v>11</v>
@@ -3531,13 +3598,13 @@
         <v>9</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3668,10 +3735,10 @@
         <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
         <v>15</v>
@@ -3680,13 +3747,13 @@
         <v>20</v>
       </c>
       <c r="AL18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
@@ -3701,28 +3768,28 @@
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU18" t="n">
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW18" t="n">
         <v>17</v>
       </c>
       <c r="AX18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY18" t="n">
         <v>27</v>
       </c>
       <c r="AZ18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA18" t="n">
         <v>3</v>
@@ -3731,7 +3798,7 @@
         <v>10</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>0.308</v>
+        <v>0.32</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3781,67 +3848,67 @@
         <v>79</v>
       </c>
       <c r="K19" t="n">
-        <v>0.422</v>
+        <v>0.423</v>
       </c>
       <c r="L19" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.357</v>
+        <v>0.362</v>
       </c>
       <c r="O19" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P19" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q19" t="n">
         <v>0.769</v>
       </c>
       <c r="R19" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S19" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="T19" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="U19" t="n">
         <v>20.2</v>
       </c>
       <c r="V19" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W19" t="n">
         <v>6.8</v>
       </c>
       <c r="X19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z19" t="n">
         <v>20.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.5</v>
+        <v>92.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-7.1</v>
+        <v>-6.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
         <v>25</v>
@@ -3850,7 +3917,7 @@
         <v>25</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>27</v>
@@ -3868,10 +3935,10 @@
         <v>1</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
         <v>18</v>
@@ -3880,7 +3947,7 @@
         <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3892,25 +3959,25 @@
         <v>17</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AY19" t="n">
         <v>19</v>
       </c>
       <c r="AZ19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA19" t="n">
         <v>13</v>
       </c>
       <c r="BB19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>0.16</v>
+        <v>0.167</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
@@ -3960,43 +4027,43 @@
         <v>34.6</v>
       </c>
       <c r="J20" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="K20" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L20" t="n">
         <v>3.7</v>
       </c>
       <c r="M20" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.298</v>
+        <v>0.297</v>
       </c>
       <c r="O20" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="P20" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.748</v>
+        <v>0.745</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S20" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T20" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V20" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W20" t="n">
         <v>7.4</v>
@@ -4008,31 +4075,31 @@
         <v>5.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>88</v>
+        <v>87.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
         <v>21</v>
@@ -4053,19 +4120,19 @@
         <v>27</v>
       </c>
       <c r="AO20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>15</v>
       </c>
       <c r="AR20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
         <v>21</v>
@@ -4074,22 +4141,22 @@
         <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW20" t="n">
         <v>20</v>
       </c>
       <c r="AX20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY20" t="n">
         <v>21</v>
       </c>
       <c r="AZ20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -4124,55 +4191,55 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J21" t="n">
-        <v>80.40000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.428</v>
+        <v>0.426</v>
       </c>
       <c r="L21" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M21" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.305</v>
+        <v>0.304</v>
       </c>
       <c r="O21" t="n">
         <v>19.4</v>
       </c>
       <c r="P21" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.78</v>
+        <v>0.787</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S21" t="n">
         <v>30.6</v>
       </c>
       <c r="T21" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U21" t="n">
         <v>19</v>
@@ -4187,46 +4254,46 @@
         <v>4.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.3</v>
+        <v>22</v>
       </c>
       <c r="AB21" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
         <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
         <v>22</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
@@ -4238,13 +4305,13 @@
         <v>7</v>
       </c>
       <c r="AP21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>18</v>
@@ -4265,19 +4332,19 @@
         <v>24</v>
       </c>
       <c r="AY21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
         <v>28</v>
       </c>
       <c r="BA21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB21" t="n">
         <v>14</v>
       </c>
       <c r="BC21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -4306,85 +4373,85 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" t="n">
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.792</v>
+        <v>0.783</v>
       </c>
       <c r="H22" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>36.2</v>
+        <v>35.9</v>
       </c>
       <c r="J22" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L22" t="n">
         <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.348</v>
+        <v>0.352</v>
       </c>
       <c r="O22" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P22" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.791</v>
+        <v>0.789</v>
       </c>
       <c r="R22" t="n">
-        <v>10.3</v>
+        <v>9.9</v>
       </c>
       <c r="S22" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="T22" t="n">
-        <v>43.6</v>
+        <v>43</v>
       </c>
       <c r="U22" t="n">
         <v>18.1</v>
       </c>
       <c r="V22" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X22" t="n">
         <v>7.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="AC22" t="n">
         <v>4.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4408,31 +4475,31 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM22" t="n">
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
         <v>3</v>
       </c>
       <c r="AR22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AU22" t="n">
         <v>27</v>
@@ -4441,16 +4508,16 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ22" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BA22" t="n">
         <v>12</v>
@@ -4459,7 +4526,7 @@
         <v>3</v>
       </c>
       <c r="BC22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -4488,100 +4555,100 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="H23" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>33.1</v>
+        <v>32.8</v>
       </c>
       <c r="J23" t="n">
-        <v>76.2</v>
+        <v>75.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L23" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M23" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O23" t="n">
-        <v>16.8</v>
+        <v>17.1</v>
       </c>
       <c r="P23" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.65</v>
+        <v>0.649</v>
       </c>
       <c r="R23" t="n">
         <v>10.8</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="U23" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="V23" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W23" t="n">
         <v>6.5</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.6</v>
+        <v>18.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>92.59999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>8</v>
       </c>
       <c r="AF23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG23" t="n">
         <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ23" t="n">
         <v>29</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>6</v>
@@ -4611,10 +4678,10 @@
         <v>18</v>
       </c>
       <c r="AS23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT23" t="n">
         <v>12</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>13</v>
       </c>
       <c r="AU23" t="n">
         <v>20</v>
@@ -4623,22 +4690,22 @@
         <v>17</v>
       </c>
       <c r="AW23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>5</v>
       </c>
-      <c r="AZ23" t="n">
-        <v>6</v>
-      </c>
       <c r="BA23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
         <v>16</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -4670,88 +4737,88 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" t="n">
         <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>0.72</v>
+        <v>0.708</v>
       </c>
       <c r="H24" t="n">
         <v>48.4</v>
       </c>
       <c r="I24" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J24" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.464</v>
       </c>
       <c r="L24" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M24" t="n">
         <v>15.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.389</v>
+        <v>0.385</v>
       </c>
       <c r="O24" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="P24" t="n">
         <v>19</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.719</v>
+        <v>0.722</v>
       </c>
       <c r="R24" t="n">
         <v>9.4</v>
       </c>
       <c r="S24" t="n">
-        <v>33.3</v>
+        <v>33.8</v>
       </c>
       <c r="T24" t="n">
-        <v>42.7</v>
+        <v>43.2</v>
       </c>
       <c r="U24" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="V24" t="n">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="W24" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="AA24" t="n">
         <v>16.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF24" t="n">
         <v>4</v>
@@ -4760,7 +4827,7 @@
         <v>4</v>
       </c>
       <c r="AH24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4772,13 +4839,13 @@
         <v>5</v>
       </c>
       <c r="AL24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>20</v>
       </c>
       <c r="AN24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,34 +4857,34 @@
         <v>27</v>
       </c>
       <c r="AR24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AU24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY24" t="n">
         <v>9</v>
       </c>
       <c r="AZ24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB24" t="n">
         <v>12</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -4852,106 +4919,106 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.417</v>
+        <v>0.391</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="J25" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.443</v>
+        <v>0.44</v>
       </c>
       <c r="L25" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.352</v>
+        <v>0.346</v>
       </c>
       <c r="O25" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="P25" t="n">
-        <v>19.1</v>
+        <v>19.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R25" t="n">
         <v>10</v>
       </c>
       <c r="S25" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T25" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U25" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V25" t="n">
         <v>14.6</v>
       </c>
       <c r="W25" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>92.8</v>
+        <v>92.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-3.4</v>
+        <v>-4</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="n">
         <v>22</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK25" t="n">
         <v>17</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>16</v>
       </c>
       <c r="AL25" t="n">
         <v>13</v>
@@ -4960,10 +5027,10 @@
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO25" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AP25" t="n">
         <v>28</v>
@@ -4978,7 +5045,7 @@
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU25" t="n">
         <v>14</v>
@@ -4987,22 +5054,22 @@
         <v>10</v>
       </c>
       <c r="AW25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY25" t="n">
         <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BC25" t="n">
         <v>23</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" t="n">
         <v>14</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.583</v>
       </c>
       <c r="H26" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J26" t="n">
-        <v>83.90000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.444</v>
+        <v>0.446</v>
       </c>
       <c r="L26" t="n">
         <v>6.2</v>
@@ -5064,73 +5131,73 @@
         <v>19.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.318</v>
+        <v>0.32</v>
       </c>
       <c r="O26" t="n">
         <v>17.8</v>
       </c>
       <c r="P26" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="Q26" t="n">
         <v>0.777</v>
       </c>
       <c r="R26" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="S26" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="T26" t="n">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
       <c r="U26" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V26" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W26" t="n">
         <v>9</v>
       </c>
       <c r="X26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK26" t="n">
         <v>14</v>
@@ -5142,7 +5209,7 @@
         <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
         <v>9</v>
@@ -5157,10 +5224,10 @@
         <v>15</v>
       </c>
       <c r="AS26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU26" t="n">
         <v>9</v>
@@ -5175,13 +5242,13 @@
         <v>11</v>
       </c>
       <c r="AY26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -5216,37 +5283,37 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" t="n">
         <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>0.375</v>
+        <v>0.348</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="J27" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.407</v>
+        <v>0.404</v>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M27" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>0.295</v>
+        <v>0.293</v>
       </c>
       <c r="O27" t="n">
         <v>18.4</v>
@@ -5258,22 +5325,22 @@
         <v>0.737</v>
       </c>
       <c r="R27" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="S27" t="n">
         <v>29.5</v>
       </c>
       <c r="T27" t="n">
-        <v>43.5</v>
+        <v>43.7</v>
       </c>
       <c r="U27" t="n">
         <v>16.2</v>
       </c>
       <c r="V27" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X27" t="n">
         <v>4.1</v>
@@ -5285,19 +5352,19 @@
         <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>92.09999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.1</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
         <v>23</v>
@@ -5306,13 +5373,13 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>26</v>
       </c>
       <c r="AJ27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK27" t="n">
         <v>30</v>
@@ -5321,10 +5388,10 @@
         <v>19</v>
       </c>
       <c r="AM27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
@@ -5333,7 +5400,7 @@
         <v>8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
@@ -5342,34 +5409,34 @@
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB27" t="n">
         <v>24</v>
       </c>
       <c r="BC27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" t="n">
         <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.654</v>
+        <v>0.64</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>82</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K28" t="n">
         <v>0.459</v>
@@ -5425,10 +5492,10 @@
         <v>7.8</v>
       </c>
       <c r="M28" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.387</v>
+        <v>0.385</v>
       </c>
       <c r="O28" t="n">
         <v>14.7</v>
@@ -5437,64 +5504,64 @@
         <v>20.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.722</v>
+        <v>0.724</v>
       </c>
       <c r="R28" t="n">
         <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T28" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="U28" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="W28" t="n">
         <v>6.9</v>
       </c>
       <c r="X28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y28" t="n">
         <v>5.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="AA28" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC28" t="n">
         <v>4.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
       </c>
       <c r="AF28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH28" t="n">
         <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK28" t="n">
         <v>8</v>
@@ -5503,7 +5570,7 @@
         <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AN28" t="n">
         <v>5</v>
@@ -5515,28 +5582,28 @@
         <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT28" t="n">
         <v>20</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV28" t="n">
         <v>3</v>
       </c>
       <c r="AW28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY28" t="n">
         <v>20</v>
@@ -5548,7 +5615,7 @@
         <v>21</v>
       </c>
       <c r="BB28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -5580,52 +5647,52 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.308</v>
+        <v>0.32</v>
       </c>
       <c r="H29" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="I29" t="n">
         <v>32.8</v>
       </c>
       <c r="J29" t="n">
-        <v>78.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.419</v>
+        <v>0.42</v>
       </c>
       <c r="L29" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="O29" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="P29" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.755</v>
+        <v>0.753</v>
       </c>
       <c r="R29" t="n">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
       <c r="S29" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="T29" t="n">
         <v>42</v>
@@ -5634,34 +5701,34 @@
         <v>20.1</v>
       </c>
       <c r="V29" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W29" t="n">
         <v>6.5</v>
       </c>
       <c r="X29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y29" t="n">
         <v>4.9</v>
       </c>
-      <c r="Y29" t="n">
-        <v>5</v>
-      </c>
       <c r="Z29" t="n">
-        <v>24.2</v>
+        <v>23.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.9</v>
+        <v>18.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>87.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-6.3</v>
+        <v>-6.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>25</v>
@@ -5670,7 +5737,7 @@
         <v>25</v>
       </c>
       <c r="AH29" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>30</v>
@@ -5679,58 +5746,58 @@
         <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM29" t="n">
         <v>18</v>
       </c>
       <c r="AN29" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
         <v>19</v>
       </c>
       <c r="AQ29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU29" t="n">
         <v>18</v>
       </c>
       <c r="AV29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC29" t="n">
         <v>25</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -5762,91 +5829,91 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.591</v>
       </c>
       <c r="H30" t="n">
         <v>48.7</v>
       </c>
       <c r="I30" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J30" t="n">
-        <v>81.2</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L30" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M30" t="n">
         <v>13</v>
       </c>
       <c r="N30" t="n">
-        <v>0.289</v>
+        <v>0.293</v>
       </c>
       <c r="O30" t="n">
         <v>20</v>
       </c>
       <c r="P30" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.739</v>
+        <v>0.737</v>
       </c>
       <c r="R30" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S30" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="T30" t="n">
-        <v>42.8</v>
+        <v>43.1</v>
       </c>
       <c r="U30" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V30" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="W30" t="n">
         <v>8</v>
       </c>
       <c r="X30" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y30" t="n">
         <v>5.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.3</v>
+        <v>22</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>96.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="n">
         <v>11</v>
@@ -5858,7 +5925,7 @@
         <v>10</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
         <v>12</v>
@@ -5888,7 +5955,7 @@
         <v>17</v>
       </c>
       <c r="AT30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU30" t="n">
         <v>16</v>
@@ -5912,10 +5979,10 @@
         <v>7</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
@@ -5944,58 +6011,58 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2</v>
+        <v>0.167</v>
       </c>
       <c r="H31" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="I31" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J31" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.42</v>
+        <v>0.417</v>
       </c>
       <c r="L31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="M31" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="N31" t="n">
         <v>0.309</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="P31" t="n">
-        <v>21.5</v>
+        <v>20.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="R31" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T31" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U31" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="V31" t="n">
         <v>15.5</v>
@@ -6007,22 +6074,22 @@
         <v>7.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.6</v>
+        <v>18</v>
       </c>
       <c r="AB31" t="n">
-        <v>90</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-9.800000000000001</v>
+        <v>-10.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6034,16 +6101,16 @@
         <v>28</v>
       </c>
       <c r="AH31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI31" t="n">
         <v>19</v>
       </c>
-      <c r="AI31" t="n">
-        <v>18</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6055,13 +6122,13 @@
         <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
         <v>10</v>
@@ -6070,7 +6137,7 @@
         <v>27</v>
       </c>
       <c r="AT31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
@@ -6085,13 +6152,13 @@
         <v>1</v>
       </c>
       <c r="AY31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ31" t="n">
         <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-6-2011-12</t>
+          <t>2012-02-06</t>
         </is>
       </c>
     </row>
